--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Purchase List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Aline</t>
   </si>
   <si>
-    <t>Filter (Phosphor or Lanex)</t>
-  </si>
-  <si>
     <t>Find it or buy it! (Might be at Greque)</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t xml:space="preserve">Window Flange </t>
   </si>
   <si>
-    <t>For SH Wavefront Sensor</t>
-  </si>
-  <si>
     <t>Ceramic Plates</t>
   </si>
   <si>
@@ -106,14 +100,77 @@
     <t>ISO-K Tee + 2 Flanges</t>
   </si>
   <si>
-    <t>Size?</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Not ordered</t>
+  </si>
+  <si>
+    <t>Filter ( Lanex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 160 - </t>
+  </si>
+  <si>
+    <t>Quote requested 28/01/2015</t>
+  </si>
+  <si>
+    <t>For SH Wavefront Sensor : what coating?</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Not ordered/not found</t>
+  </si>
+  <si>
+    <t>Vacuum-compatible subd 15 cable</t>
+  </si>
+  <si>
+    <t>3 metres</t>
+  </si>
+  <si>
+    <t>Quote requested 27/01/2015</t>
+  </si>
+  <si>
+    <t>Design not started</t>
+  </si>
+  <si>
+    <t>Verify stock + check with Benoit for what has already been ordered</t>
+  </si>
+  <si>
+    <t>Translation/flip for Beam block</t>
+  </si>
+  <si>
+    <t>Not designed</t>
+  </si>
+  <si>
+    <t>Shutter connector</t>
+  </si>
+  <si>
+    <t>Do we have everything?</t>
+  </si>
+  <si>
+    <t>Conformité ligne PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the performance of the translation stage up to specs? </t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>1.5" mirror mounts</t>
+  </si>
+  <si>
+    <t>Add wedge to addtenuator design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +178,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,8 +240,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,10 +350,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +384,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,54 +559,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -503,9 +626,12 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -514,126 +640,256 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
+      <c r="C23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
+      <c r="E24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="E27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -121,18 +121,12 @@
     <t>Newport</t>
   </si>
   <si>
-    <t>Not ordered/not found</t>
-  </si>
-  <si>
     <t>Vacuum-compatible subd 15 cable</t>
   </si>
   <si>
     <t>3 metres</t>
   </si>
   <si>
-    <t>Quote requested 27/01/2015</t>
-  </si>
-  <si>
     <t>Design not started</t>
   </si>
   <si>
@@ -164,6 +158,15 @@
   </si>
   <si>
     <t>Add wedge to addtenuator design</t>
+  </si>
+  <si>
+    <t>Ordered on 29/01/2015</t>
+  </si>
+  <si>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>in progress @Greg's</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +230,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -240,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -258,6 +267,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,13 +573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
@@ -597,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -641,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -657,8 +668,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
+      <c r="E10" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -714,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -739,7 +750,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -787,13 +798,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -846,46 +857,46 @@
     </row>
     <row r="30" spans="1:5" ht="24.75" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -167,13 +167,16 @@
   </si>
   <si>
     <t>in progress @Greg's</t>
+  </si>
+  <si>
+    <t>Periscope Brewster Angled D-Scan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +364,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,6 +399,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,14 +575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -586,7 +591,7 @@
     <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -603,7 +608,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -611,7 +621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -619,7 +629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -627,7 +637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -655,10 +665,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -672,10 +682,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -689,7 +699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -703,7 +713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -717,10 +727,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="51.75" customHeight="1">
+    <row r="16" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -731,10 +741,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -748,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -762,10 +772,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1">
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -779,10 +789,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -796,7 +806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -807,10 +817,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -824,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -838,10 +848,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -855,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24.75" customHeight="1">
+    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
@@ -869,7 +879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -880,7 +890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -891,7 +901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Periscope Brewster Angled D-Scan</t>
+  </si>
+  <si>
+    <t>Quotation requested 02/02/2015 FB</t>
+  </si>
+  <si>
+    <t>Quotation requested 04/02/2015 FB</t>
   </si>
 </sst>
 </file>
@@ -578,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,8 +760,8 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
+      <c r="E18" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,8 +836,8 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>29</v>
+      <c r="E26" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,8 +850,8 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>29</v>
+      <c r="E27" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Distributer</t>
-  </si>
-  <si>
     <t>Mount for 'Swiss Cheese' mirror</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Aline</t>
   </si>
   <si>
-    <t>Find it or buy it! (Might be at Greque)</t>
-  </si>
-  <si>
     <t>Ground Plate for CMs</t>
   </si>
   <si>
@@ -112,12 +106,6 @@
     <t xml:space="preserve">ISO 160 - </t>
   </si>
   <si>
-    <t>Quote requested 28/01/2015</t>
-  </si>
-  <si>
-    <t>For SH Wavefront Sensor : what coating?</t>
-  </si>
-  <si>
     <t>Newport</t>
   </si>
   <si>
@@ -157,16 +145,31 @@
     <t>1.5" mirror mounts</t>
   </si>
   <si>
-    <t>Add wedge to addtenuator design</t>
-  </si>
-  <si>
     <t>Ordered on 29/01/2015</t>
   </si>
   <si>
     <t>Found</t>
   </si>
   <si>
-    <t>in progress @Greg's</t>
+    <t>Ordered on 10/03/2015</t>
+  </si>
+  <si>
+    <t>Add wedge to attenuator design</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>New attenuator design test</t>
+  </si>
+  <si>
+    <t>Ordered on 24/02/2015</t>
+  </si>
+  <si>
+    <t>2" Wedges for measurement</t>
+  </si>
+  <si>
+    <t>Distributor</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -268,7 +271,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -591,40 +593,40 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -632,27 +634,27 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -660,16 +662,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -677,44 +676,44 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -722,13 +721,16 @@
     </row>
     <row r="16" spans="1:5" ht="51.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -736,30 +738,30 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -767,16 +769,14 @@
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -784,27 +784,27 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -812,30 +812,30 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -843,60 +843,80 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -97,9 +97,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Not ordered</t>
-  </si>
-  <si>
     <t>Filter ( Lanex)</t>
   </si>
   <si>
@@ -170,13 +167,31 @@
   </si>
   <si>
     <t>Distributor</t>
+  </si>
+  <si>
+    <t>Ordered 01/03/2015 FB</t>
+  </si>
+  <si>
+    <t>Received 01/03/2015 FB</t>
+  </si>
+  <si>
+    <t>Greque will do a design FB</t>
+  </si>
+  <si>
+    <t>Ordered 12/03/2015</t>
+  </si>
+  <si>
+    <t>2" Ordered 12/03/2015</t>
+  </si>
+  <si>
+    <t>Received glass diffusers OK? FB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,7 +304,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,9 +378,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +413,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,14 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -588,7 +605,7 @@
     <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -599,21 +616,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -621,7 +638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,7 +646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,11 +656,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -654,27 +671,27 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -688,7 +705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -702,7 +719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -712,31 +729,31 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="51.75" customHeight="1">
+    <row r="16" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -746,13 +763,13 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -764,10 +781,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1">
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -776,13 +793,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -792,25 +809,25 @@
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,11 +837,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -834,89 +851,89 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="9" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Received 01/03/2015 FB</t>
   </si>
   <si>
-    <t>Greque will do a design FB</t>
-  </si>
-  <si>
     <t>Ordered 12/03/2015</t>
   </si>
   <si>
@@ -185,13 +182,19 @@
   </si>
   <si>
     <t>Received glass diffusers OK? FB</t>
+  </si>
+  <si>
+    <t>Greg will do a design FB</t>
+  </si>
+  <si>
+    <t>Ordered on 24/02/2015 (Aurélie)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -346,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,10 +381,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +415,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,14 +590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -605,7 +606,7 @@
     <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -622,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -630,7 +631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -638,7 +639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -646,7 +647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,10 +675,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -688,10 +689,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -705,7 +706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -719,7 +720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -733,10 +734,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="51.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -750,10 +751,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -767,7 +768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -781,10 +782,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -796,10 +797,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -810,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -824,10 +825,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -838,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -852,13 +853,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -872,7 +873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="24.75" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
@@ -886,7 +887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -897,7 +898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -908,7 +909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -916,7 +917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -924,16 +925,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -142,9 +142,6 @@
     <t>1.5" mirror mounts</t>
   </si>
   <si>
-    <t>Ordered on 29/01/2015</t>
-  </si>
-  <si>
     <t>Found</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>New attenuator design test</t>
   </si>
   <si>
-    <t>Ordered on 24/02/2015</t>
-  </si>
-  <si>
     <t>2" Wedges for measurement</t>
   </si>
   <si>
@@ -188,13 +182,25 @@
   </si>
   <si>
     <t>Ordered on 24/02/2015 (Aurélie)</t>
+  </si>
+  <si>
+    <t>Ordered on 29/01/2015, where is it??</t>
+  </si>
+  <si>
+    <t>More 3" Femtolaser/Layertec mirrors?</t>
+  </si>
+  <si>
+    <t>99% transmission mirrors for far-field?</t>
+  </si>
+  <si>
+    <t>How many Newport flips + controllers do we have?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +227,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -285,10 +298,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
@@ -617,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
@@ -658,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -685,8 +700,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>43</v>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -730,8 +745,8 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>52</v>
+      <c r="E14" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -765,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -793,8 +808,8 @@
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>48</v>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -811,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -839,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -853,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -870,11 +885,11 @@
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
@@ -883,8 +898,8 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>42</v>
+      <c r="E30" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -911,15 +926,15 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>40</v>
@@ -931,10 +946,34 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,6 +10,7 @@
     <sheet name="Purchase List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -163,9 +164,6 @@
     <t>Distributor</t>
   </si>
   <si>
-    <t>Ordered 01/03/2015 FB</t>
-  </si>
-  <si>
     <t>Received 01/03/2015 FB</t>
   </si>
   <si>
@@ -194,13 +192,16 @@
   </si>
   <si>
     <t>How many Newport flips + controllers do we have?</t>
+  </si>
+  <si>
+    <t>Received 15/04/2015 FB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -364,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +397,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,6 +432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,14 +608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -621,7 +624,7 @@
     <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -638,7 +641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -646,7 +649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -654,7 +657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -662,7 +665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -690,10 +693,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -704,10 +707,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -721,7 +724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -735,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -746,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="51.75" customHeight="1">
+    <row r="16" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -766,10 +769,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -779,11 +782,11 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -793,14 +796,14 @@
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1">
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -812,10 +815,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -826,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -840,10 +843,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -854,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -868,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -888,7 +891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24.75" customHeight="1">
+    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
@@ -899,21 +902,21 @@
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -924,7 +927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -932,7 +935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -940,37 +943,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>26</v>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Periscope Main Beam</t>
   </si>
   <si>
-    <t>Periscope + Translation HeNe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Window Flange </t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>3 metres</t>
   </si>
   <si>
-    <t>Design not started</t>
-  </si>
-  <si>
     <t>Verify stock + check with Benoit for what has already been ordered</t>
   </si>
   <si>
@@ -190,17 +184,41 @@
     <t>More 3" Femtolaser/Layertec mirrors?</t>
   </si>
   <si>
-    <t>99% transmission mirrors for far-field?</t>
-  </si>
-  <si>
     <t>How many Newport flips + controllers do we have?</t>
+  </si>
+  <si>
+    <t>Standalone picomotors to put on SH mirror x2</t>
+  </si>
+  <si>
+    <t>Not ordered</t>
+  </si>
+  <si>
+    <t>2 + controller</t>
+  </si>
+  <si>
+    <t>99% transmission mirrors for far-field? (2")</t>
+  </si>
+  <si>
+    <t>Feedthroughs for delay line (subd15 + HD subd15?)</t>
+  </si>
+  <si>
+    <t>Subd15 ok HD to be ordered</t>
+  </si>
+  <si>
+    <t>Started design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design not started </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periscope </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +245,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +314,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -632,18 +643,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -673,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -686,8 +697,8 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -695,13 +706,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -709,7 +720,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -718,12 +729,12 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -732,12 +743,12 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -746,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -757,13 +768,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -780,21 +791,21 @@
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -802,14 +813,14 @@
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -817,27 +828,27 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
         <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -845,30 +856,30 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -876,68 +887,68 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.75" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -946,34 +957,53 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>26</v>
+      <c r="E47" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>Holed Mirror Translation</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Found</t>
   </si>
   <si>
-    <t>Ordered on 10/03/2015</t>
-  </si>
-  <si>
     <t>Add wedge to attenuator design</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Ordered on 24/02/2015 (Aurélie)</t>
   </si>
   <si>
-    <t>Ordered on 29/01/2015, where is it??</t>
-  </si>
-  <si>
     <t>More 3" Femtolaser/Layertec mirrors?</t>
   </si>
   <si>
@@ -212,6 +206,24 @@
   </si>
   <si>
     <t xml:space="preserve">Periscope </t>
+  </si>
+  <si>
+    <t>Received - Machining in progress</t>
+  </si>
+  <si>
+    <t>ok, 160µrad PV over 4cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plate for chirped mirrors </t>
+  </si>
+  <si>
+    <t>Shack-Hartmann windows</t>
+  </si>
+  <si>
+    <t>Received (16/04/2015), Aurélie</t>
+  </si>
+  <si>
+    <t>Ordered on 29/01/2015, where is it?? To be reordered?</t>
   </si>
 </sst>
 </file>
@@ -617,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -629,7 +641,7 @@
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1">
@@ -643,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
@@ -651,10 +663,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -684,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -698,43 +710,37 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-    </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -748,7 +754,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -756,180 +762,192 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="E23" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
+      <c r="E25" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>49</v>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>38</v>
+      <c r="E32" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>38</v>
@@ -937,51 +955,54 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="8" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="E39" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>25</v>
@@ -989,21 +1010,29 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -199,9 +199,6 @@
     <t>Subd15 ok HD to be ordered</t>
   </si>
   <si>
-    <t>Started design</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design not started </t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>Ordered on 29/01/2015, where is it?? To be reordered?</t>
+  </si>
+  <si>
+    <t>Designed, CAD in progress at Greg's</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -663,10 +663,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -710,12 +710,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -845,11 +845,11 @@
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5"/>
       <c r="E23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24.75" customHeight="1">
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -977,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5">
